--- a/alienkeric/alienkeric-(externalcell).xlsx
+++ b/alienkeric/alienkeric-(externalcell).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>\\172.17.17.199\share\[Workbookname.xlsx]SheetName'!$B$2:$C$62,2,FALSE)</t>
+    <t>\\192.168.10.20\share\[Workbookname.xlsx]SheetName'!$B$2:$C$62,2,FALSE)</t>
   </si>
 </sst>
 </file>
